--- a/output/Fishing_WideData.xlsx
+++ b/output/Fishing_WideData.xlsx
@@ -4813,7 +4813,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BEAV_N_06</t>
+          <t>BEAV_N_07</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4828,17 +4828,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>45°55.423'</t>
+          <t>45°55.518'</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>74°03.933'</t>
+          <t>74°03.762'</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:19</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>N6</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -4962,7 +4962,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BEAV_N_07</t>
+          <t>BEAV_N_09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4977,17 +4977,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>45°55.518'</t>
+          <t>45°55.423'</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>74°03.762'</t>
+          <t>74°03.933'</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>16:19</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -4997,12 +4997,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>N7</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Charles</t>
+          <t>N9</t>
         </is>
       </c>
       <c r="J32">
@@ -5024,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -5149,11 +5144,6 @@
           <t>N11</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Charles</t>
-        </is>
-      </c>
       <c r="J33">
         <v>0</v>
       </c>
@@ -25958,11 +25948,6 @@
           <t>N13</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>Juliane</t>
-        </is>
-      </c>
       <c r="J174">
         <v>0</v>
       </c>
@@ -37023,11 +37008,6 @@
           <t>N5</t>
         </is>
       </c>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>Lea</t>
-        </is>
-      </c>
       <c r="J249">
         <v>0</v>
       </c>
@@ -37321,11 +37301,6 @@
           <t>N7</t>
         </is>
       </c>
-      <c r="I251" t="inlineStr">
-        <is>
-          <t>Lea</t>
-        </is>
-      </c>
       <c r="J251">
         <v>0</v>
       </c>
@@ -41984,11 +41959,6 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>Lea</t>
-        </is>
-      </c>
       <c r="J283">
         <v>0</v>
       </c>
@@ -42280,11 +42250,6 @@
       <c r="H285" t="inlineStr">
         <is>
           <t>N3</t>
-        </is>
-      </c>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>Lea</t>
         </is>
       </c>
       <c r="J285">

--- a/output/Fishing_WideData.xlsx
+++ b/output/Fishing_WideData.xlsx
@@ -18744,7 +18744,7 @@
         <v>0</v>
       </c>
       <c r="V125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W125">
         <v>0</v>
@@ -19902,7 +19902,7 @@
         <v>0</v>
       </c>
       <c r="N133">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -19953,7 +19953,7 @@
         <v>0</v>
       </c>
       <c r="AE133">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF133">
         <v>0</v>
